--- a/Resources/2019_Black.xlsx
+++ b/Resources/2019_Black.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\git\trilogy\homework\UCF_Data_Bootcamp_Project1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D879015-C937-45E9-9FAC-F0A68296B383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{666D2F01-8AE7-4BC7-A3A2-384B4DC94940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="143">
   <si>
     <t>Table with row headers in column A and column headers in rows 8 through 9, 12 through 13, 19 through 20, 26 through 27, 34 through 35, 47 through 48, 63 through 64, 73 through 74, 83 through 84, and 97 through 98</t>
   </si>
@@ -1093,12 +1093,6 @@
   <si>
     <t>Masters degree</t>
   </si>
-  <si>
-    <t>Professional degree</t>
-  </si>
-  <si>
-    <t>Doctorate degree</t>
-  </si>
 </sst>
 </file>
 
@@ -1228,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1263,17 +1257,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1614,7 +1605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A92" workbookViewId="0">
       <selection activeCell="AR97" sqref="A97:XFD109"/>
     </sheetView>
   </sheetViews>
@@ -1625,581 +1616,581 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
     </row>
     <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
     </row>
     <row r="3" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
     </row>
     <row r="4" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
     </row>
     <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
     </row>
     <row r="6" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="14"/>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="14"/>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
     </row>
     <row r="7" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
     </row>
     <row r="8" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="V8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="W8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="X8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Y8" s="16" t="s">
+      <c r="Y8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" s="16" t="s">
+      <c r="Z8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AA8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AB8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC8" s="16" t="s">
+      <c r="AC8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD8" s="16" t="s">
+      <c r="AD8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AE8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF8" s="16" t="s">
+      <c r="AF8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="16" t="s">
+      <c r="AG8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH8" s="16" t="s">
+      <c r="AH8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI8" s="16" t="s">
+      <c r="AI8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ8" s="16" t="s">
+      <c r="AJ8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK8" s="16" t="s">
+      <c r="AK8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AL8" s="16" t="s">
+      <c r="AL8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM8" s="16" t="s">
+      <c r="AM8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN8" s="16" t="s">
+      <c r="AN8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO8" s="16" t="s">
+      <c r="AO8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AP8" s="16" t="s">
+      <c r="AP8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ8" s="16" t="s">
+      <c r="AQ8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AR8" s="16" t="s">
+      <c r="AR8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16" t="s">
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16" t="s">
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AW8" s="16"/>
-      <c r="AX8" s="16" t="s">
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AY8" s="16"/>
+      <c r="AY8" s="11"/>
     </row>
     <row r="9" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
       <c r="AR9" s="1" t="s">
         <v>50</v>
       </c>
@@ -2381,251 +2372,251 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
     </row>
     <row r="12" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="V12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W12" s="16" t="s">
+      <c r="W12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="X12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Y12" s="16" t="s">
+      <c r="Y12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="Z12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AA12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="16" t="s">
+      <c r="AB12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" s="16" t="s">
+      <c r="AC12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD12" s="16" t="s">
+      <c r="AD12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AE12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF12" s="16" t="s">
+      <c r="AF12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG12" s="16" t="s">
+      <c r="AG12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH12" s="16" t="s">
+      <c r="AH12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI12" s="16" t="s">
+      <c r="AI12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ12" s="16" t="s">
+      <c r="AJ12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK12" s="16" t="s">
+      <c r="AK12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AL12" s="16" t="s">
+      <c r="AL12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM12" s="16" t="s">
+      <c r="AM12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN12" s="16" t="s">
+      <c r="AN12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO12" s="16" t="s">
+      <c r="AO12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AP12" s="16" t="s">
+      <c r="AP12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ12" s="16" t="s">
+      <c r="AQ12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AR12" s="16" t="s">
+      <c r="AR12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16" t="s">
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16" t="s">
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AW12" s="16"/>
-      <c r="AX12" s="16" t="s">
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AY12" s="16"/>
+      <c r="AY12" s="11"/>
     </row>
     <row r="13" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
       <c r="AR13" s="1" t="s">
         <v>50</v>
       </c>
@@ -3272,251 +3263,251 @@
       </c>
     </row>
     <row r="18" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="15"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
     </row>
     <row r="19" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="16" t="s">
+      <c r="P19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="16" t="s">
+      <c r="Q19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="16" t="s">
+      <c r="R19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="S19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="T19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U19" s="16" t="s">
+      <c r="U19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="16" t="s">
+      <c r="V19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W19" s="16" t="s">
+      <c r="W19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X19" s="16" t="s">
+      <c r="X19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Y19" s="16" t="s">
+      <c r="Y19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z19" s="16" t="s">
+      <c r="Z19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA19" s="16" t="s">
+      <c r="AA19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB19" s="16" t="s">
+      <c r="AB19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC19" s="16" t="s">
+      <c r="AC19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD19" s="16" t="s">
+      <c r="AD19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE19" s="16" t="s">
+      <c r="AE19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF19" s="16" t="s">
+      <c r="AF19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG19" s="16" t="s">
+      <c r="AG19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH19" s="16" t="s">
+      <c r="AH19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI19" s="16" t="s">
+      <c r="AI19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ19" s="16" t="s">
+      <c r="AJ19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK19" s="16" t="s">
+      <c r="AK19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AL19" s="16" t="s">
+      <c r="AL19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM19" s="16" t="s">
+      <c r="AM19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN19" s="16" t="s">
+      <c r="AN19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO19" s="16" t="s">
+      <c r="AO19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AP19" s="16" t="s">
+      <c r="AP19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ19" s="16" t="s">
+      <c r="AQ19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AR19" s="16" t="s">
+      <c r="AR19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16" t="s">
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16" t="s">
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AW19" s="16"/>
-      <c r="AX19" s="16" t="s">
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AY19" s="16"/>
+      <c r="AY19" s="11"/>
     </row>
     <row r="20" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="16"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
       <c r="AR20" s="1" t="s">
         <v>50</v>
       </c>
@@ -4163,251 +4154,251 @@
       </c>
     </row>
     <row r="25" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
     </row>
     <row r="26" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O26" s="16" t="s">
+      <c r="O26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="P26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="16" t="s">
+      <c r="Q26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R26" s="16" t="s">
+      <c r="R26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="S26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T26" s="16" t="s">
+      <c r="T26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U26" s="16" t="s">
+      <c r="U26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="16" t="s">
+      <c r="V26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X26" s="16" t="s">
+      <c r="X26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Y26" s="16" t="s">
+      <c r="Y26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z26" s="16" t="s">
+      <c r="Z26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA26" s="16" t="s">
+      <c r="AA26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB26" s="16" t="s">
+      <c r="AB26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC26" s="16" t="s">
+      <c r="AC26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD26" s="16" t="s">
+      <c r="AD26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE26" s="16" t="s">
+      <c r="AE26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF26" s="16" t="s">
+      <c r="AF26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG26" s="16" t="s">
+      <c r="AG26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH26" s="16" t="s">
+      <c r="AH26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI26" s="16" t="s">
+      <c r="AI26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ26" s="16" t="s">
+      <c r="AJ26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK26" s="16" t="s">
+      <c r="AK26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AL26" s="16" t="s">
+      <c r="AL26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM26" s="16" t="s">
+      <c r="AM26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN26" s="16" t="s">
+      <c r="AN26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO26" s="16" t="s">
+      <c r="AO26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AP26" s="16" t="s">
+      <c r="AP26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ26" s="16" t="s">
+      <c r="AQ26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AR26" s="16" t="s">
+      <c r="AR26" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AS26" s="16"/>
-      <c r="AT26" s="16" t="s">
+      <c r="AS26" s="11"/>
+      <c r="AT26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="16" t="s">
+      <c r="AU26" s="11"/>
+      <c r="AV26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AW26" s="16"/>
-      <c r="AX26" s="16" t="s">
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AY26" s="16"/>
+      <c r="AY26" s="11"/>
     </row>
     <row r="27" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
-      <c r="AO27" s="16"/>
-      <c r="AP27" s="16"/>
-      <c r="AQ27" s="16"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
       <c r="AR27" s="1" t="s">
         <v>50</v>
       </c>
@@ -5209,251 +5200,251 @@
       </c>
     </row>
     <row r="33" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="15"/>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="15"/>
-      <c r="AM33" s="15"/>
-      <c r="AN33" s="15"/>
-      <c r="AO33" s="15"/>
-      <c r="AP33" s="15"/>
-      <c r="AQ33" s="15"/>
-      <c r="AR33" s="15"/>
-      <c r="AS33" s="15"/>
-      <c r="AT33" s="15"/>
-      <c r="AU33" s="15"/>
-      <c r="AV33" s="15"/>
-      <c r="AW33" s="15"/>
-      <c r="AX33" s="15"/>
-      <c r="AY33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
     </row>
     <row r="34" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="M34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="16" t="s">
+      <c r="O34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="16" t="s">
+      <c r="P34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q34" s="16" t="s">
+      <c r="Q34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="16" t="s">
+      <c r="R34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="16" t="s">
+      <c r="S34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T34" s="16" t="s">
+      <c r="T34" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U34" s="16" t="s">
+      <c r="U34" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V34" s="16" t="s">
+      <c r="V34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W34" s="16" t="s">
+      <c r="W34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X34" s="16" t="s">
+      <c r="X34" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Y34" s="16" t="s">
+      <c r="Y34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z34" s="16" t="s">
+      <c r="Z34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA34" s="16" t="s">
+      <c r="AA34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB34" s="16" t="s">
+      <c r="AB34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC34" s="16" t="s">
+      <c r="AC34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD34" s="16" t="s">
+      <c r="AD34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE34" s="16" t="s">
+      <c r="AE34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF34" s="16" t="s">
+      <c r="AF34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG34" s="16" t="s">
+      <c r="AG34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH34" s="16" t="s">
+      <c r="AH34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI34" s="16" t="s">
+      <c r="AI34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ34" s="16" t="s">
+      <c r="AJ34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK34" s="16" t="s">
+      <c r="AK34" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AL34" s="16" t="s">
+      <c r="AL34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM34" s="16" t="s">
+      <c r="AM34" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN34" s="16" t="s">
+      <c r="AN34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO34" s="16" t="s">
+      <c r="AO34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AP34" s="16" t="s">
+      <c r="AP34" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ34" s="16" t="s">
+      <c r="AQ34" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AR34" s="16" t="s">
+      <c r="AR34" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AS34" s="16"/>
-      <c r="AT34" s="16" t="s">
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AU34" s="16"/>
-      <c r="AV34" s="16" t="s">
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AW34" s="16"/>
-      <c r="AX34" s="16" t="s">
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AY34" s="16"/>
+      <c r="AY34" s="11"/>
     </row>
     <row r="35" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="16"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
       <c r="AR35" s="1" t="s">
         <v>50</v>
       </c>
@@ -7030,251 +7021,251 @@
       </c>
     </row>
     <row r="46" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="15"/>
-      <c r="AI46" s="15"/>
-      <c r="AJ46" s="15"/>
-      <c r="AK46" s="15"/>
-      <c r="AL46" s="15"/>
-      <c r="AM46" s="15"/>
-      <c r="AN46" s="15"/>
-      <c r="AO46" s="15"/>
-      <c r="AP46" s="15"/>
-      <c r="AQ46" s="15"/>
-      <c r="AR46" s="15"/>
-      <c r="AS46" s="15"/>
-      <c r="AT46" s="15"/>
-      <c r="AU46" s="15"/>
-      <c r="AV46" s="15"/>
-      <c r="AW46" s="15"/>
-      <c r="AX46" s="15"/>
-      <c r="AY46" s="15"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="12"/>
+      <c r="AX46" s="12"/>
+      <c r="AY46" s="12"/>
     </row>
     <row r="47" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="16" t="s">
+      <c r="I47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="J47" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="L47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M47" s="16" t="s">
+      <c r="M47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="16" t="s">
+      <c r="N47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O47" s="16" t="s">
+      <c r="O47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="16" t="s">
+      <c r="P47" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q47" s="16" t="s">
+      <c r="Q47" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R47" s="16" t="s">
+      <c r="R47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="16" t="s">
+      <c r="S47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T47" s="16" t="s">
+      <c r="T47" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U47" s="16" t="s">
+      <c r="U47" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V47" s="16" t="s">
+      <c r="V47" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W47" s="16" t="s">
+      <c r="W47" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X47" s="16" t="s">
+      <c r="X47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Y47" s="16" t="s">
+      <c r="Y47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z47" s="16" t="s">
+      <c r="Z47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA47" s="16" t="s">
+      <c r="AA47" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB47" s="16" t="s">
+      <c r="AB47" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC47" s="16" t="s">
+      <c r="AC47" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD47" s="16" t="s">
+      <c r="AD47" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE47" s="16" t="s">
+      <c r="AE47" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF47" s="16" t="s">
+      <c r="AF47" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG47" s="16" t="s">
+      <c r="AG47" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH47" s="16" t="s">
+      <c r="AH47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI47" s="16" t="s">
+      <c r="AI47" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ47" s="16" t="s">
+      <c r="AJ47" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK47" s="16" t="s">
+      <c r="AK47" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AL47" s="16" t="s">
+      <c r="AL47" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM47" s="16" t="s">
+      <c r="AM47" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN47" s="16" t="s">
+      <c r="AN47" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO47" s="16" t="s">
+      <c r="AO47" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AP47" s="16" t="s">
+      <c r="AP47" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ47" s="16" t="s">
+      <c r="AQ47" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AR47" s="16" t="s">
+      <c r="AR47" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AS47" s="16"/>
-      <c r="AT47" s="16" t="s">
+      <c r="AS47" s="11"/>
+      <c r="AT47" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AU47" s="16"/>
-      <c r="AV47" s="16" t="s">
+      <c r="AU47" s="11"/>
+      <c r="AV47" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AW47" s="16"/>
-      <c r="AX47" s="16" t="s">
+      <c r="AW47" s="11"/>
+      <c r="AX47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AY47" s="16"/>
+      <c r="AY47" s="11"/>
     </row>
     <row r="48" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-      <c r="AC48" s="16"/>
-      <c r="AD48" s="16"/>
-      <c r="AE48" s="16"/>
-      <c r="AF48" s="16"/>
-      <c r="AG48" s="16"/>
-      <c r="AH48" s="16"/>
-      <c r="AI48" s="16"/>
-      <c r="AJ48" s="16"/>
-      <c r="AK48" s="16"/>
-      <c r="AL48" s="16"/>
-      <c r="AM48" s="16"/>
-      <c r="AN48" s="16"/>
-      <c r="AO48" s="16"/>
-      <c r="AP48" s="16"/>
-      <c r="AQ48" s="16"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
       <c r="AR48" s="1" t="s">
         <v>50</v>
       </c>
@@ -9316,251 +9307,251 @@
       </c>
     </row>
     <row r="62" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="15"/>
-      <c r="AD62" s="15"/>
-      <c r="AE62" s="15"/>
-      <c r="AF62" s="15"/>
-      <c r="AG62" s="15"/>
-      <c r="AH62" s="15"/>
-      <c r="AI62" s="15"/>
-      <c r="AJ62" s="15"/>
-      <c r="AK62" s="15"/>
-      <c r="AL62" s="15"/>
-      <c r="AM62" s="15"/>
-      <c r="AN62" s="15"/>
-      <c r="AO62" s="15"/>
-      <c r="AP62" s="15"/>
-      <c r="AQ62" s="15"/>
-      <c r="AR62" s="15"/>
-      <c r="AS62" s="15"/>
-      <c r="AT62" s="15"/>
-      <c r="AU62" s="15"/>
-      <c r="AV62" s="15"/>
-      <c r="AW62" s="15"/>
-      <c r="AX62" s="15"/>
-      <c r="AY62" s="15"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="12"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="12"/>
+      <c r="AW62" s="12"/>
+      <c r="AX62" s="12"/>
+      <c r="AY62" s="12"/>
     </row>
     <row r="63" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="16" t="s">
+      <c r="I63" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="16" t="s">
+      <c r="J63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="K63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L63" s="16" t="s">
+      <c r="L63" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M63" s="16" t="s">
+      <c r="M63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N63" s="16" t="s">
+      <c r="N63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O63" s="16" t="s">
+      <c r="O63" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P63" s="16" t="s">
+      <c r="P63" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q63" s="16" t="s">
+      <c r="Q63" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R63" s="16" t="s">
+      <c r="R63" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S63" s="16" t="s">
+      <c r="S63" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T63" s="16" t="s">
+      <c r="T63" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U63" s="16" t="s">
+      <c r="U63" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V63" s="16" t="s">
+      <c r="V63" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W63" s="16" t="s">
+      <c r="W63" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X63" s="16" t="s">
+      <c r="X63" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Y63" s="16" t="s">
+      <c r="Y63" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z63" s="16" t="s">
+      <c r="Z63" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA63" s="16" t="s">
+      <c r="AA63" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB63" s="16" t="s">
+      <c r="AB63" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC63" s="16" t="s">
+      <c r="AC63" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD63" s="16" t="s">
+      <c r="AD63" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE63" s="16" t="s">
+      <c r="AE63" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF63" s="16" t="s">
+      <c r="AF63" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG63" s="16" t="s">
+      <c r="AG63" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH63" s="16" t="s">
+      <c r="AH63" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI63" s="16" t="s">
+      <c r="AI63" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ63" s="16" t="s">
+      <c r="AJ63" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK63" s="16" t="s">
+      <c r="AK63" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AL63" s="16" t="s">
+      <c r="AL63" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM63" s="16" t="s">
+      <c r="AM63" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN63" s="16" t="s">
+      <c r="AN63" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO63" s="16" t="s">
+      <c r="AO63" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AP63" s="16" t="s">
+      <c r="AP63" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ63" s="16" t="s">
+      <c r="AQ63" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AR63" s="16" t="s">
+      <c r="AR63" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AS63" s="16"/>
-      <c r="AT63" s="16" t="s">
+      <c r="AS63" s="11"/>
+      <c r="AT63" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AU63" s="16"/>
-      <c r="AV63" s="16" t="s">
+      <c r="AU63" s="11"/>
+      <c r="AV63" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AW63" s="16"/>
-      <c r="AX63" s="16" t="s">
+      <c r="AW63" s="11"/>
+      <c r="AX63" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AY63" s="16"/>
+      <c r="AY63" s="11"/>
     </row>
     <row r="64" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
-      <c r="AD64" s="16"/>
-      <c r="AE64" s="16"/>
-      <c r="AF64" s="16"/>
-      <c r="AG64" s="16"/>
-      <c r="AH64" s="16"/>
-      <c r="AI64" s="16"/>
-      <c r="AJ64" s="16"/>
-      <c r="AK64" s="16"/>
-      <c r="AL64" s="16"/>
-      <c r="AM64" s="16"/>
-      <c r="AN64" s="16"/>
-      <c r="AO64" s="16"/>
-      <c r="AP64" s="16"/>
-      <c r="AQ64" s="16"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="11"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="11"/>
+      <c r="AP64" s="11"/>
+      <c r="AQ64" s="11"/>
       <c r="AR64" s="1" t="s">
         <v>50</v>
       </c>
@@ -10672,251 +10663,251 @@
       </c>
     </row>
     <row r="72" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15"/>
-      <c r="AC72" s="15"/>
-      <c r="AD72" s="15"/>
-      <c r="AE72" s="15"/>
-      <c r="AF72" s="15"/>
-      <c r="AG72" s="15"/>
-      <c r="AH72" s="15"/>
-      <c r="AI72" s="15"/>
-      <c r="AJ72" s="15"/>
-      <c r="AK72" s="15"/>
-      <c r="AL72" s="15"/>
-      <c r="AM72" s="15"/>
-      <c r="AN72" s="15"/>
-      <c r="AO72" s="15"/>
-      <c r="AP72" s="15"/>
-      <c r="AQ72" s="15"/>
-      <c r="AR72" s="15"/>
-      <c r="AS72" s="15"/>
-      <c r="AT72" s="15"/>
-      <c r="AU72" s="15"/>
-      <c r="AV72" s="15"/>
-      <c r="AW72" s="15"/>
-      <c r="AX72" s="15"/>
-      <c r="AY72" s="15"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="12"/>
+      <c r="AU72" s="12"/>
+      <c r="AV72" s="12"/>
+      <c r="AW72" s="12"/>
+      <c r="AX72" s="12"/>
+      <c r="AY72" s="12"/>
     </row>
     <row r="73" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="16" t="s">
+      <c r="I73" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="J73" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="K73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L73" s="16" t="s">
+      <c r="L73" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M73" s="16" t="s">
+      <c r="M73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N73" s="16" t="s">
+      <c r="N73" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O73" s="16" t="s">
+      <c r="O73" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="16" t="s">
+      <c r="P73" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q73" s="16" t="s">
+      <c r="Q73" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R73" s="16" t="s">
+      <c r="R73" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S73" s="16" t="s">
+      <c r="S73" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T73" s="16" t="s">
+      <c r="T73" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U73" s="16" t="s">
+      <c r="U73" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V73" s="16" t="s">
+      <c r="V73" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W73" s="16" t="s">
+      <c r="W73" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X73" s="16" t="s">
+      <c r="X73" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Y73" s="16" t="s">
+      <c r="Y73" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z73" s="16" t="s">
+      <c r="Z73" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA73" s="16" t="s">
+      <c r="AA73" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB73" s="16" t="s">
+      <c r="AB73" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC73" s="16" t="s">
+      <c r="AC73" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD73" s="16" t="s">
+      <c r="AD73" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE73" s="16" t="s">
+      <c r="AE73" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF73" s="16" t="s">
+      <c r="AF73" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG73" s="16" t="s">
+      <c r="AG73" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH73" s="16" t="s">
+      <c r="AH73" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI73" s="16" t="s">
+      <c r="AI73" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ73" s="16" t="s">
+      <c r="AJ73" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK73" s="16" t="s">
+      <c r="AK73" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AL73" s="16" t="s">
+      <c r="AL73" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM73" s="16" t="s">
+      <c r="AM73" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN73" s="16" t="s">
+      <c r="AN73" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO73" s="16" t="s">
+      <c r="AO73" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AP73" s="16" t="s">
+      <c r="AP73" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ73" s="16" t="s">
+      <c r="AQ73" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AR73" s="16" t="s">
+      <c r="AR73" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AS73" s="16"/>
-      <c r="AT73" s="16" t="s">
+      <c r="AS73" s="11"/>
+      <c r="AT73" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AU73" s="16"/>
-      <c r="AV73" s="16" t="s">
+      <c r="AU73" s="11"/>
+      <c r="AV73" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AW73" s="16"/>
-      <c r="AX73" s="16" t="s">
+      <c r="AW73" s="11"/>
+      <c r="AX73" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AY73" s="16"/>
+      <c r="AY73" s="11"/>
     </row>
     <row r="74" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
-      <c r="Z74" s="16"/>
-      <c r="AA74" s="16"/>
-      <c r="AB74" s="16"/>
-      <c r="AC74" s="16"/>
-      <c r="AD74" s="16"/>
-      <c r="AE74" s="16"/>
-      <c r="AF74" s="16"/>
-      <c r="AG74" s="16"/>
-      <c r="AH74" s="16"/>
-      <c r="AI74" s="16"/>
-      <c r="AJ74" s="16"/>
-      <c r="AK74" s="16"/>
-      <c r="AL74" s="16"/>
-      <c r="AM74" s="16"/>
-      <c r="AN74" s="16"/>
-      <c r="AO74" s="16"/>
-      <c r="AP74" s="16"/>
-      <c r="AQ74" s="16"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="11"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="11"/>
+      <c r="AO74" s="11"/>
+      <c r="AP74" s="11"/>
+      <c r="AQ74" s="11"/>
       <c r="AR74" s="1" t="s">
         <v>50</v>
       </c>
@@ -12028,251 +12019,251 @@
       </c>
     </row>
     <row r="82" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
-      <c r="U82" s="15"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="15"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="15"/>
-      <c r="AA82" s="15"/>
-      <c r="AB82" s="15"/>
-      <c r="AC82" s="15"/>
-      <c r="AD82" s="15"/>
-      <c r="AE82" s="15"/>
-      <c r="AF82" s="15"/>
-      <c r="AG82" s="15"/>
-      <c r="AH82" s="15"/>
-      <c r="AI82" s="15"/>
-      <c r="AJ82" s="15"/>
-      <c r="AK82" s="15"/>
-      <c r="AL82" s="15"/>
-      <c r="AM82" s="15"/>
-      <c r="AN82" s="15"/>
-      <c r="AO82" s="15"/>
-      <c r="AP82" s="15"/>
-      <c r="AQ82" s="15"/>
-      <c r="AR82" s="15"/>
-      <c r="AS82" s="15"/>
-      <c r="AT82" s="15"/>
-      <c r="AU82" s="15"/>
-      <c r="AV82" s="15"/>
-      <c r="AW82" s="15"/>
-      <c r="AX82" s="15"/>
-      <c r="AY82" s="15"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="12"/>
+      <c r="AC82" s="12"/>
+      <c r="AD82" s="12"/>
+      <c r="AE82" s="12"/>
+      <c r="AF82" s="12"/>
+      <c r="AG82" s="12"/>
+      <c r="AH82" s="12"/>
+      <c r="AI82" s="12"/>
+      <c r="AJ82" s="12"/>
+      <c r="AK82" s="12"/>
+      <c r="AL82" s="12"/>
+      <c r="AM82" s="12"/>
+      <c r="AN82" s="12"/>
+      <c r="AO82" s="12"/>
+      <c r="AP82" s="12"/>
+      <c r="AQ82" s="12"/>
+      <c r="AR82" s="12"/>
+      <c r="AS82" s="12"/>
+      <c r="AT82" s="12"/>
+      <c r="AU82" s="12"/>
+      <c r="AV82" s="12"/>
+      <c r="AW82" s="12"/>
+      <c r="AX82" s="12"/>
+      <c r="AY82" s="12"/>
     </row>
     <row r="83" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="16" t="s">
+      <c r="I83" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J83" s="16" t="s">
+      <c r="J83" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K83" s="16" t="s">
+      <c r="K83" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="16" t="s">
+      <c r="L83" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M83" s="16" t="s">
+      <c r="M83" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N83" s="16" t="s">
+      <c r="N83" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O83" s="16" t="s">
+      <c r="O83" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P83" s="16" t="s">
+      <c r="P83" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q83" s="16" t="s">
+      <c r="Q83" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R83" s="16" t="s">
+      <c r="R83" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S83" s="16" t="s">
+      <c r="S83" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T83" s="16" t="s">
+      <c r="T83" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U83" s="16" t="s">
+      <c r="U83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V83" s="16" t="s">
+      <c r="V83" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W83" s="16" t="s">
+      <c r="W83" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X83" s="16" t="s">
+      <c r="X83" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Y83" s="16" t="s">
+      <c r="Y83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z83" s="16" t="s">
+      <c r="Z83" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA83" s="16" t="s">
+      <c r="AA83" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB83" s="16" t="s">
+      <c r="AB83" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC83" s="16" t="s">
+      <c r="AC83" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD83" s="16" t="s">
+      <c r="AD83" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE83" s="16" t="s">
+      <c r="AE83" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF83" s="16" t="s">
+      <c r="AF83" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG83" s="16" t="s">
+      <c r="AG83" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH83" s="16" t="s">
+      <c r="AH83" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI83" s="16" t="s">
+      <c r="AI83" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ83" s="16" t="s">
+      <c r="AJ83" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK83" s="16" t="s">
+      <c r="AK83" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AL83" s="16" t="s">
+      <c r="AL83" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM83" s="16" t="s">
+      <c r="AM83" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN83" s="16" t="s">
+      <c r="AN83" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO83" s="16" t="s">
+      <c r="AO83" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AP83" s="16" t="s">
+      <c r="AP83" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ83" s="16" t="s">
+      <c r="AQ83" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AR83" s="16" t="s">
+      <c r="AR83" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AS83" s="16"/>
-      <c r="AT83" s="16" t="s">
+      <c r="AS83" s="11"/>
+      <c r="AT83" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AU83" s="16"/>
-      <c r="AV83" s="16" t="s">
+      <c r="AU83" s="11"/>
+      <c r="AV83" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AW83" s="16"/>
-      <c r="AX83" s="16" t="s">
+      <c r="AW83" s="11"/>
+      <c r="AX83" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AY83" s="16"/>
+      <c r="AY83" s="11"/>
     </row>
     <row r="84" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="16"/>
-      <c r="W84" s="16"/>
-      <c r="X84" s="16"/>
-      <c r="Y84" s="16"/>
-      <c r="Z84" s="16"/>
-      <c r="AA84" s="16"/>
-      <c r="AB84" s="16"/>
-      <c r="AC84" s="16"/>
-      <c r="AD84" s="16"/>
-      <c r="AE84" s="16"/>
-      <c r="AF84" s="16"/>
-      <c r="AG84" s="16"/>
-      <c r="AH84" s="16"/>
-      <c r="AI84" s="16"/>
-      <c r="AJ84" s="16"/>
-      <c r="AK84" s="16"/>
-      <c r="AL84" s="16"/>
-      <c r="AM84" s="16"/>
-      <c r="AN84" s="16"/>
-      <c r="AO84" s="16"/>
-      <c r="AP84" s="16"/>
-      <c r="AQ84" s="16"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+      <c r="AA84" s="11"/>
+      <c r="AB84" s="11"/>
+      <c r="AC84" s="11"/>
+      <c r="AD84" s="11"/>
+      <c r="AE84" s="11"/>
+      <c r="AF84" s="11"/>
+      <c r="AG84" s="11"/>
+      <c r="AH84" s="11"/>
+      <c r="AI84" s="11"/>
+      <c r="AJ84" s="11"/>
+      <c r="AK84" s="11"/>
+      <c r="AL84" s="11"/>
+      <c r="AM84" s="11"/>
+      <c r="AN84" s="11"/>
+      <c r="AO84" s="11"/>
+      <c r="AP84" s="11"/>
+      <c r="AQ84" s="11"/>
       <c r="AR84" s="1" t="s">
         <v>50</v>
       </c>
@@ -14004,251 +13995,251 @@
       </c>
     </row>
     <row r="96" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
-      <c r="S96" s="15"/>
-      <c r="T96" s="15"/>
-      <c r="U96" s="15"/>
-      <c r="V96" s="15"/>
-      <c r="W96" s="15"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="15"/>
-      <c r="AA96" s="15"/>
-      <c r="AB96" s="15"/>
-      <c r="AC96" s="15"/>
-      <c r="AD96" s="15"/>
-      <c r="AE96" s="15"/>
-      <c r="AF96" s="15"/>
-      <c r="AG96" s="15"/>
-      <c r="AH96" s="15"/>
-      <c r="AI96" s="15"/>
-      <c r="AJ96" s="15"/>
-      <c r="AK96" s="15"/>
-      <c r="AL96" s="15"/>
-      <c r="AM96" s="15"/>
-      <c r="AN96" s="15"/>
-      <c r="AO96" s="15"/>
-      <c r="AP96" s="15"/>
-      <c r="AQ96" s="15"/>
-      <c r="AR96" s="15"/>
-      <c r="AS96" s="15"/>
-      <c r="AT96" s="15"/>
-      <c r="AU96" s="15"/>
-      <c r="AV96" s="15"/>
-      <c r="AW96" s="15"/>
-      <c r="AX96" s="15"/>
-      <c r="AY96" s="15"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+      <c r="AC96" s="12"/>
+      <c r="AD96" s="12"/>
+      <c r="AE96" s="12"/>
+      <c r="AF96" s="12"/>
+      <c r="AG96" s="12"/>
+      <c r="AH96" s="12"/>
+      <c r="AI96" s="12"/>
+      <c r="AJ96" s="12"/>
+      <c r="AK96" s="12"/>
+      <c r="AL96" s="12"/>
+      <c r="AM96" s="12"/>
+      <c r="AN96" s="12"/>
+      <c r="AO96" s="12"/>
+      <c r="AP96" s="12"/>
+      <c r="AQ96" s="12"/>
+      <c r="AR96" s="12"/>
+      <c r="AS96" s="12"/>
+      <c r="AT96" s="12"/>
+      <c r="AU96" s="12"/>
+      <c r="AV96" s="12"/>
+      <c r="AW96" s="12"/>
+      <c r="AX96" s="12"/>
+      <c r="AY96" s="12"/>
     </row>
     <row r="97" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="16" t="s">
+      <c r="F97" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G97" s="16" t="s">
+      <c r="G97" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H97" s="16" t="s">
+      <c r="H97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I97" s="16" t="s">
+      <c r="I97" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J97" s="16" t="s">
+      <c r="J97" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K97" s="16" t="s">
+      <c r="K97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L97" s="16" t="s">
+      <c r="L97" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M97" s="16" t="s">
+      <c r="M97" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N97" s="16" t="s">
+      <c r="N97" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O97" s="16" t="s">
+      <c r="O97" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P97" s="16" t="s">
+      <c r="P97" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q97" s="16" t="s">
+      <c r="Q97" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R97" s="16" t="s">
+      <c r="R97" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S97" s="16" t="s">
+      <c r="S97" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T97" s="16" t="s">
+      <c r="T97" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U97" s="16" t="s">
+      <c r="U97" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V97" s="16" t="s">
+      <c r="V97" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W97" s="16" t="s">
+      <c r="W97" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="X97" s="16" t="s">
+      <c r="X97" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Y97" s="16" t="s">
+      <c r="Y97" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z97" s="16" t="s">
+      <c r="Z97" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA97" s="16" t="s">
+      <c r="AA97" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB97" s="16" t="s">
+      <c r="AB97" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC97" s="16" t="s">
+      <c r="AC97" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AD97" s="16" t="s">
+      <c r="AD97" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE97" s="16" t="s">
+      <c r="AE97" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF97" s="16" t="s">
+      <c r="AF97" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG97" s="16" t="s">
+      <c r="AG97" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AH97" s="16" t="s">
+      <c r="AH97" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AI97" s="16" t="s">
+      <c r="AI97" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AJ97" s="16" t="s">
+      <c r="AJ97" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AK97" s="16" t="s">
+      <c r="AK97" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AL97" s="16" t="s">
+      <c r="AL97" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM97" s="16" t="s">
+      <c r="AM97" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN97" s="16" t="s">
+      <c r="AN97" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO97" s="16" t="s">
+      <c r="AO97" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AP97" s="16" t="s">
+      <c r="AP97" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ97" s="16" t="s">
+      <c r="AQ97" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AR97" s="16" t="s">
+      <c r="AR97" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AS97" s="16"/>
-      <c r="AT97" s="16" t="s">
+      <c r="AS97" s="11"/>
+      <c r="AT97" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AU97" s="16"/>
-      <c r="AV97" s="16" t="s">
+      <c r="AU97" s="11"/>
+      <c r="AV97" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AW97" s="16"/>
-      <c r="AX97" s="16" t="s">
+      <c r="AW97" s="11"/>
+      <c r="AX97" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AY97" s="16"/>
+      <c r="AY97" s="11"/>
     </row>
     <row r="98" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-      <c r="U98" s="16"/>
-      <c r="V98" s="16"/>
-      <c r="W98" s="16"/>
-      <c r="X98" s="16"/>
-      <c r="Y98" s="16"/>
-      <c r="Z98" s="16"/>
-      <c r="AA98" s="16"/>
-      <c r="AB98" s="16"/>
-      <c r="AC98" s="16"/>
-      <c r="AD98" s="16"/>
-      <c r="AE98" s="16"/>
-      <c r="AF98" s="16"/>
-      <c r="AG98" s="16"/>
-      <c r="AH98" s="16"/>
-      <c r="AI98" s="16"/>
-      <c r="AJ98" s="16"/>
-      <c r="AK98" s="16"/>
-      <c r="AL98" s="16"/>
-      <c r="AM98" s="16"/>
-      <c r="AN98" s="16"/>
-      <c r="AO98" s="16"/>
-      <c r="AP98" s="16"/>
-      <c r="AQ98" s="16"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="11"/>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="11"/>
+      <c r="AA98" s="11"/>
+      <c r="AB98" s="11"/>
+      <c r="AC98" s="11"/>
+      <c r="AD98" s="11"/>
+      <c r="AE98" s="11"/>
+      <c r="AF98" s="11"/>
+      <c r="AG98" s="11"/>
+      <c r="AH98" s="11"/>
+      <c r="AI98" s="11"/>
+      <c r="AJ98" s="11"/>
+      <c r="AK98" s="11"/>
+      <c r="AL98" s="11"/>
+      <c r="AM98" s="11"/>
+      <c r="AN98" s="11"/>
+      <c r="AO98" s="11"/>
+      <c r="AP98" s="11"/>
+      <c r="AQ98" s="11"/>
       <c r="AR98" s="1" t="s">
         <v>50</v>
       </c>
@@ -15981,36 +15972,438 @@
     </row>
   </sheetData>
   <mergeCells count="486">
-    <mergeCell ref="AT97:AU97"/>
-    <mergeCell ref="AV97:AW97"/>
-    <mergeCell ref="AX97:AY97"/>
-    <mergeCell ref="AJ97:AJ98"/>
-    <mergeCell ref="AK97:AK98"/>
-    <mergeCell ref="AL97:AL98"/>
-    <mergeCell ref="AM97:AM98"/>
-    <mergeCell ref="AN97:AN98"/>
-    <mergeCell ref="AO97:AO98"/>
-    <mergeCell ref="AP97:AP98"/>
-    <mergeCell ref="AQ97:AQ98"/>
-    <mergeCell ref="AR97:AS97"/>
-    <mergeCell ref="AA97:AA98"/>
-    <mergeCell ref="AB97:AB98"/>
-    <mergeCell ref="AC97:AC98"/>
-    <mergeCell ref="AD97:AD98"/>
-    <mergeCell ref="AE97:AE98"/>
-    <mergeCell ref="AF97:AF98"/>
-    <mergeCell ref="AG97:AG98"/>
-    <mergeCell ref="AH97:AH98"/>
-    <mergeCell ref="AI97:AI98"/>
-    <mergeCell ref="R97:R98"/>
-    <mergeCell ref="S97:S98"/>
-    <mergeCell ref="T97:T98"/>
-    <mergeCell ref="U97:U98"/>
-    <mergeCell ref="V97:V98"/>
-    <mergeCell ref="W97:W98"/>
-    <mergeCell ref="X97:X98"/>
-    <mergeCell ref="Y97:Y98"/>
-    <mergeCell ref="Z97:Z98"/>
+    <mergeCell ref="A1:AY1"/>
+    <mergeCell ref="A2:AY2"/>
+    <mergeCell ref="A3:AY3"/>
+    <mergeCell ref="A4:AY4"/>
+    <mergeCell ref="A5:AY5"/>
+    <mergeCell ref="A6:AY6"/>
+    <mergeCell ref="A7:AY7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A11:AY11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:AY12"/>
+    <mergeCell ref="A18:AY18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AP19:AP20"/>
+    <mergeCell ref="AQ19:AQ20"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AX19:AY19"/>
+    <mergeCell ref="A25:AY25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AK26:AK27"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AM26:AM27"/>
+    <mergeCell ref="AN26:AN27"/>
+    <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AP26:AP27"/>
+    <mergeCell ref="AQ26:AQ27"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AX26:AY26"/>
+    <mergeCell ref="A33:AY33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF34:AF35"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AM34:AM35"/>
+    <mergeCell ref="AN34:AN35"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AP34:AP35"/>
+    <mergeCell ref="AQ34:AQ35"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AX34:AY34"/>
+    <mergeCell ref="A46:AY46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="Y47:Y48"/>
+    <mergeCell ref="Z47:Z48"/>
+    <mergeCell ref="AA47:AA48"/>
+    <mergeCell ref="AB47:AB48"/>
+    <mergeCell ref="AC47:AC48"/>
+    <mergeCell ref="AD47:AD48"/>
+    <mergeCell ref="AE47:AE48"/>
+    <mergeCell ref="AF47:AF48"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="AH47:AH48"/>
+    <mergeCell ref="AI47:AI48"/>
+    <mergeCell ref="AJ47:AJ48"/>
+    <mergeCell ref="AK47:AK48"/>
+    <mergeCell ref="AL47:AL48"/>
+    <mergeCell ref="AM47:AM48"/>
+    <mergeCell ref="AN47:AN48"/>
+    <mergeCell ref="AO47:AO48"/>
+    <mergeCell ref="AP47:AP48"/>
+    <mergeCell ref="AQ47:AQ48"/>
+    <mergeCell ref="AR47:AS47"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AX47:AY47"/>
+    <mergeCell ref="A62:AY62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="Y63:Y64"/>
+    <mergeCell ref="Z63:Z64"/>
+    <mergeCell ref="AA63:AA64"/>
+    <mergeCell ref="AB63:AB64"/>
+    <mergeCell ref="AC63:AC64"/>
+    <mergeCell ref="AD63:AD64"/>
+    <mergeCell ref="AE63:AE64"/>
+    <mergeCell ref="AF63:AF64"/>
+    <mergeCell ref="AG63:AG64"/>
+    <mergeCell ref="AH63:AH64"/>
+    <mergeCell ref="AI63:AI64"/>
+    <mergeCell ref="AJ63:AJ64"/>
+    <mergeCell ref="AK63:AK64"/>
+    <mergeCell ref="AL63:AL64"/>
+    <mergeCell ref="AM63:AM64"/>
+    <mergeCell ref="AN63:AN64"/>
+    <mergeCell ref="AO63:AO64"/>
+    <mergeCell ref="AP63:AP64"/>
+    <mergeCell ref="AQ63:AQ64"/>
+    <mergeCell ref="AR63:AS63"/>
+    <mergeCell ref="AT63:AU63"/>
+    <mergeCell ref="AV63:AW63"/>
+    <mergeCell ref="AX63:AY63"/>
+    <mergeCell ref="A72:AY72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="U73:U74"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="X73:X74"/>
+    <mergeCell ref="Y73:Y74"/>
+    <mergeCell ref="Z73:Z74"/>
+    <mergeCell ref="AA73:AA74"/>
+    <mergeCell ref="AB73:AB74"/>
+    <mergeCell ref="AC73:AC74"/>
+    <mergeCell ref="AD73:AD74"/>
+    <mergeCell ref="AE73:AE74"/>
+    <mergeCell ref="AF73:AF74"/>
+    <mergeCell ref="AG73:AG74"/>
+    <mergeCell ref="AH73:AH74"/>
+    <mergeCell ref="AI73:AI74"/>
+    <mergeCell ref="AJ73:AJ74"/>
+    <mergeCell ref="AK73:AK74"/>
+    <mergeCell ref="AL73:AL74"/>
+    <mergeCell ref="AM73:AM74"/>
+    <mergeCell ref="AN73:AN74"/>
+    <mergeCell ref="AO73:AO74"/>
+    <mergeCell ref="AP73:AP74"/>
+    <mergeCell ref="AQ73:AQ74"/>
+    <mergeCell ref="AR73:AS73"/>
+    <mergeCell ref="AT73:AU73"/>
+    <mergeCell ref="AV73:AW73"/>
+    <mergeCell ref="AX73:AY73"/>
+    <mergeCell ref="A82:AY82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="S83:S84"/>
+    <mergeCell ref="T83:T84"/>
+    <mergeCell ref="U83:U84"/>
+    <mergeCell ref="V83:V84"/>
+    <mergeCell ref="W83:W84"/>
+    <mergeCell ref="X83:X84"/>
+    <mergeCell ref="Y83:Y84"/>
+    <mergeCell ref="Z83:Z84"/>
+    <mergeCell ref="AA83:AA84"/>
+    <mergeCell ref="AB83:AB84"/>
+    <mergeCell ref="AC83:AC84"/>
+    <mergeCell ref="AD83:AD84"/>
+    <mergeCell ref="AE83:AE84"/>
+    <mergeCell ref="AF83:AF84"/>
+    <mergeCell ref="AG83:AG84"/>
+    <mergeCell ref="AH83:AH84"/>
+    <mergeCell ref="AI83:AI84"/>
+    <mergeCell ref="AJ83:AJ84"/>
+    <mergeCell ref="AK83:AK84"/>
+    <mergeCell ref="AL83:AL84"/>
+    <mergeCell ref="AM83:AM84"/>
+    <mergeCell ref="AN83:AN84"/>
+    <mergeCell ref="AO83:AO84"/>
     <mergeCell ref="AP83:AP84"/>
     <mergeCell ref="AQ83:AQ84"/>
     <mergeCell ref="AR83:AS83"/>
@@ -16035,438 +16428,36 @@
     <mergeCell ref="O97:O98"/>
     <mergeCell ref="P97:P98"/>
     <mergeCell ref="Q97:Q98"/>
-    <mergeCell ref="AG83:AG84"/>
-    <mergeCell ref="AH83:AH84"/>
-    <mergeCell ref="AI83:AI84"/>
-    <mergeCell ref="AJ83:AJ84"/>
-    <mergeCell ref="AK83:AK84"/>
-    <mergeCell ref="AL83:AL84"/>
-    <mergeCell ref="AM83:AM84"/>
-    <mergeCell ref="AN83:AN84"/>
-    <mergeCell ref="AO83:AO84"/>
-    <mergeCell ref="X83:X84"/>
-    <mergeCell ref="Y83:Y84"/>
-    <mergeCell ref="Z83:Z84"/>
-    <mergeCell ref="AA83:AA84"/>
-    <mergeCell ref="AB83:AB84"/>
-    <mergeCell ref="AC83:AC84"/>
-    <mergeCell ref="AD83:AD84"/>
-    <mergeCell ref="AE83:AE84"/>
-    <mergeCell ref="AF83:AF84"/>
-    <mergeCell ref="A82:AY82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="S83:S84"/>
-    <mergeCell ref="T83:T84"/>
-    <mergeCell ref="U83:U84"/>
-    <mergeCell ref="V83:V84"/>
-    <mergeCell ref="W83:W84"/>
-    <mergeCell ref="AM73:AM74"/>
-    <mergeCell ref="AN73:AN74"/>
-    <mergeCell ref="AO73:AO74"/>
-    <mergeCell ref="AP73:AP74"/>
-    <mergeCell ref="AQ73:AQ74"/>
-    <mergeCell ref="AR73:AS73"/>
-    <mergeCell ref="AT73:AU73"/>
-    <mergeCell ref="AV73:AW73"/>
-    <mergeCell ref="AX73:AY73"/>
-    <mergeCell ref="AD73:AD74"/>
-    <mergeCell ref="AE73:AE74"/>
-    <mergeCell ref="AF73:AF74"/>
-    <mergeCell ref="AG73:AG74"/>
-    <mergeCell ref="AH73:AH74"/>
-    <mergeCell ref="AI73:AI74"/>
-    <mergeCell ref="AJ73:AJ74"/>
-    <mergeCell ref="AK73:AK74"/>
-    <mergeCell ref="AL73:AL74"/>
-    <mergeCell ref="U73:U74"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="X73:X74"/>
-    <mergeCell ref="Y73:Y74"/>
-    <mergeCell ref="Z73:Z74"/>
-    <mergeCell ref="AA73:AA74"/>
-    <mergeCell ref="AB73:AB74"/>
-    <mergeCell ref="AC73:AC74"/>
-    <mergeCell ref="AT63:AU63"/>
-    <mergeCell ref="AV63:AW63"/>
-    <mergeCell ref="AX63:AY63"/>
-    <mergeCell ref="A72:AY72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="AJ63:AJ64"/>
-    <mergeCell ref="AK63:AK64"/>
-    <mergeCell ref="AL63:AL64"/>
-    <mergeCell ref="AM63:AM64"/>
-    <mergeCell ref="AN63:AN64"/>
-    <mergeCell ref="AO63:AO64"/>
-    <mergeCell ref="AP63:AP64"/>
-    <mergeCell ref="AQ63:AQ64"/>
-    <mergeCell ref="AR63:AS63"/>
-    <mergeCell ref="AA63:AA64"/>
-    <mergeCell ref="AB63:AB64"/>
-    <mergeCell ref="AC63:AC64"/>
-    <mergeCell ref="AD63:AD64"/>
-    <mergeCell ref="AE63:AE64"/>
-    <mergeCell ref="AF63:AF64"/>
-    <mergeCell ref="AG63:AG64"/>
-    <mergeCell ref="AH63:AH64"/>
-    <mergeCell ref="AI63:AI64"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
-    <mergeCell ref="Y63:Y64"/>
-    <mergeCell ref="Z63:Z64"/>
-    <mergeCell ref="AP47:AP48"/>
-    <mergeCell ref="AQ47:AQ48"/>
-    <mergeCell ref="AR47:AS47"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AX47:AY47"/>
-    <mergeCell ref="A62:AY62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="AH47:AH48"/>
-    <mergeCell ref="AI47:AI48"/>
-    <mergeCell ref="AJ47:AJ48"/>
-    <mergeCell ref="AK47:AK48"/>
-    <mergeCell ref="AL47:AL48"/>
-    <mergeCell ref="AM47:AM48"/>
-    <mergeCell ref="AN47:AN48"/>
-    <mergeCell ref="AO47:AO48"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="Y47:Y48"/>
-    <mergeCell ref="Z47:Z48"/>
-    <mergeCell ref="AA47:AA48"/>
-    <mergeCell ref="AB47:AB48"/>
-    <mergeCell ref="AC47:AC48"/>
-    <mergeCell ref="AD47:AD48"/>
-    <mergeCell ref="AE47:AE48"/>
-    <mergeCell ref="AF47:AF48"/>
-    <mergeCell ref="A46:AY46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="AM34:AM35"/>
-    <mergeCell ref="AN34:AN35"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="AP34:AP35"/>
-    <mergeCell ref="AQ34:AQ35"/>
-    <mergeCell ref="AR34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AX34:AY34"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF34:AF35"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AH34:AH35"/>
-    <mergeCell ref="AI34:AI35"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AK34:AK35"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AX26:AY26"/>
-    <mergeCell ref="A33:AY33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AK26:AK27"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AM26:AM27"/>
-    <mergeCell ref="AN26:AN27"/>
-    <mergeCell ref="AO26:AO27"/>
-    <mergeCell ref="AP26:AP27"/>
-    <mergeCell ref="AQ26:AQ27"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="AQ19:AQ20"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AX19:AY19"/>
-    <mergeCell ref="A25:AY25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="A18:AY18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:AY12"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A11:AY11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="A1:AY1"/>
-    <mergeCell ref="A2:AY2"/>
-    <mergeCell ref="A3:AY3"/>
-    <mergeCell ref="A4:AY4"/>
-    <mergeCell ref="A5:AY5"/>
-    <mergeCell ref="A6:AY6"/>
-    <mergeCell ref="A7:AY7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R97:R98"/>
+    <mergeCell ref="S97:S98"/>
+    <mergeCell ref="T97:T98"/>
+    <mergeCell ref="U97:U98"/>
+    <mergeCell ref="V97:V98"/>
+    <mergeCell ref="W97:W98"/>
+    <mergeCell ref="X97:X98"/>
+    <mergeCell ref="Y97:Y98"/>
+    <mergeCell ref="Z97:Z98"/>
+    <mergeCell ref="AA97:AA98"/>
+    <mergeCell ref="AB97:AB98"/>
+    <mergeCell ref="AC97:AC98"/>
+    <mergeCell ref="AD97:AD98"/>
+    <mergeCell ref="AE97:AE98"/>
+    <mergeCell ref="AF97:AF98"/>
+    <mergeCell ref="AG97:AG98"/>
+    <mergeCell ref="AH97:AH98"/>
+    <mergeCell ref="AI97:AI98"/>
+    <mergeCell ref="AT97:AU97"/>
+    <mergeCell ref="AV97:AW97"/>
+    <mergeCell ref="AX97:AY97"/>
+    <mergeCell ref="AJ97:AJ98"/>
+    <mergeCell ref="AK97:AK98"/>
+    <mergeCell ref="AL97:AL98"/>
+    <mergeCell ref="AM97:AM98"/>
+    <mergeCell ref="AN97:AN98"/>
+    <mergeCell ref="AO97:AO98"/>
+    <mergeCell ref="AP97:AP98"/>
+    <mergeCell ref="AQ97:AQ98"/>
+    <mergeCell ref="AR97:AS97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -16476,20 +16467,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F77D0B-D6A0-4F8F-A108-B516067F96D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDECE37-C036-4049-92E7-7DF7E6777BE9}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="42" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="6" t="s">
         <v>139</v>
       </c>
@@ -16518,17 +16509,17 @@
         <v>142</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="3">
         <v>9508</v>
       </c>
@@ -16564,10 +16555,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3">
         <v>383</v>
       </c>
@@ -16603,10 +16594,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3">
         <v>224</v>
       </c>
@@ -16642,10 +16633,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3">
         <v>338</v>
       </c>
@@ -16681,10 +16672,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3">
         <v>369</v>
       </c>
@@ -16720,10 +16711,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3">
         <v>447</v>
       </c>
@@ -16759,10 +16750,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3">
         <v>581</v>
       </c>
@@ -16798,10 +16789,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3">
         <v>475</v>
       </c>
@@ -16837,10 +16828,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3">
         <v>442</v>
       </c>
@@ -16876,10 +16867,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3">
         <v>410</v>
       </c>
@@ -16915,10 +16906,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3">
         <v>385</v>
       </c>
@@ -16954,10 +16945,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3">
         <v>357</v>
       </c>
@@ -16993,10 +16984,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3">
         <v>354</v>
       </c>
@@ -17032,10 +17023,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3">
         <v>317</v>
       </c>
@@ -17071,10 +17062,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3">
         <v>328</v>
       </c>
@@ -17110,10 +17101,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3">
         <v>312</v>
       </c>
@@ -17149,10 +17140,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3">
         <v>233</v>
       </c>
@@ -17188,10 +17179,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3">
         <v>217</v>
       </c>
@@ -17227,10 +17218,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="3">
         <v>256</v>
       </c>
@@ -17266,10 +17257,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3">
         <v>232</v>
       </c>
@@ -17305,10 +17296,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3">
         <v>237</v>
       </c>
@@ -17344,10 +17335,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="3">
         <v>229</v>
       </c>
@@ -17383,10 +17374,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="3">
         <v>177</v>
       </c>
@@ -17422,10 +17413,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3">
         <v>164</v>
       </c>
@@ -17461,10 +17452,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3">
         <v>145</v>
       </c>
@@ -17500,10 +17491,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="3">
         <v>169</v>
       </c>
@@ -17539,10 +17530,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="3">
         <v>125</v>
       </c>
@@ -17578,10 +17569,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="3">
         <v>119</v>
       </c>
@@ -17617,10 +17608,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="3">
         <v>89</v>
       </c>
@@ -17656,10 +17647,10 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="3">
         <v>84</v>
       </c>
@@ -17695,10 +17686,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="3">
         <v>111</v>
       </c>
@@ -17734,10 +17725,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="3">
         <v>107</v>
       </c>
@@ -17773,10 +17764,10 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="3">
         <v>50</v>
       </c>
@@ -17812,10 +17803,10 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="3">
         <v>87</v>
       </c>
@@ -17851,10 +17842,10 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="3">
         <v>74</v>
       </c>
@@ -17890,10 +17881,10 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="3">
         <v>46</v>
       </c>
@@ -17929,10 +17920,10 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="3">
         <v>65</v>
       </c>
@@ -17968,10 +17959,10 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="3">
         <v>35</v>
       </c>
@@ -18007,10 +17998,10 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="3">
         <v>44</v>
       </c>
@@ -18046,10 +18037,10 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="3">
         <v>29</v>
       </c>
@@ -18085,10 +18076,10 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="3">
         <v>34</v>
       </c>
@@ -18124,10 +18115,10 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="3">
         <v>630</v>
       </c>
@@ -18163,10 +18154,10 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="3">
@@ -18204,8 +18195,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="3">
@@ -18243,10 +18234,10 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="3">
@@ -18284,8 +18275,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="3">
@@ -18323,10 +18314,10 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="4">
@@ -18364,8 +18355,8 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="5">
@@ -18403,10 +18394,10 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="3">
@@ -18444,8 +18435,8 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="3">
